--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>802702.4574860923</v>
+        <v>800266.8205623854</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>20.92219337427549</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>163.8945021012537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559958</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>214.8185470786316</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.2171436930534</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>396.2444275807713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778477</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69.44978602910659</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329762</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>30.08716156973404</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114081</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.0543222645812</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035067</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="E13" t="n">
-        <v>54.49322057420638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.018581172448512</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>52.32675559600487</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457615</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560521</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5.064748620497994e-12</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552356</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>75.55208621972895</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>20.92847288552876</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>41.74133133758682</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>90.00079239153432</v>
+        <v>121.8000472740363</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417119</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.4311206861335</v>
       </c>
       <c r="D31" t="n">
-        <v>50.52682476229696</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856381</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833981</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>102.1656705247868</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>1.839588425939093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365899</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>35.88641949135544</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G43" t="n">
-        <v>55.5207962406038</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428189</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>60.11729550773677</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1565.440264581601</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.47774764119</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>838.2120490344394</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>838.2120490344394</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>427.2261442448318</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1003.777100914008</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>775.7875500159902</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.7875500159902</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>825.0478081068841</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>818.1023073576806</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3108.617390216615</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2777.554502873044</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.78584760293</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.32008934185</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036487</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995258</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>879.9099329995258</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.807527238423</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.845010298011</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>863.5793116912607</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>477.7910590930165</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.8443805240842</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1857.143249069193</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.376633638719</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.376633638719</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1380.692145432832</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.274975395871</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>863.285424497854</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.4928453543239</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1925.398164665172</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1556.43564772476</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.16994911801</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>812.3816965197657</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>401.3957917301582</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469202</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J11" t="n">
-        <v>308.733397138684</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420339</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176543</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687108</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856291</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882249</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234601</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245567</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197145</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604059</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260488</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990374</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729294</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.998004729294</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469202</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469202</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520027</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895893</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246961</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112712</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.660810952867</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826908</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6713627826908</v>
+        <v>203.8650582458547</v>
       </c>
       <c r="D13" t="n">
-        <v>133.5547233703551</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600405</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457709</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888926</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906991</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457037</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897326</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691439</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>914.101957654478</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564606</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129305</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698318</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721295</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.534748721489</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.736990154881</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C16" t="n">
-        <v>757.8008072269741</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="D16" t="n">
-        <v>607.6841678146384</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="E16" t="n">
-        <v>459.7710742322452</v>
+        <v>406.9157655494122</v>
       </c>
       <c r="F16" t="n">
-        <v>312.8811267343349</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6669319089137</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439276</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233389</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298411</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.736990154881</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.9555321712448</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>558.019349243338</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474212</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495108</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014846</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474263</v>
+        <v>363.736961327736</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>215.823867745343</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>215.8238677453431</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876684</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406112</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,7 +6175,7 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
         <v>1755.431557602303</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614382</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179081</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C28" t="n">
-        <v>489.9894131830887</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797744</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,19 +6470,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286968</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>748.5648313007899</v>
+        <v>493.2161050975124</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851766</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851766</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851766</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000565</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000565</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,10 +6701,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.7311804011395</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011395</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888036</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888036</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.263433515774</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1619.578945309887</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1102.172224374909</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y34" t="n">
-        <v>881.3796452313792</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835336</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>697.527634571198</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908945</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783228</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>402.724593490894</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2410.714175003133</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122181</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803132</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>380.3425296439153</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237993</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726113</v>
       </c>
       <c r="E13" t="n">
-        <v>91.94074207236278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034026</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729116</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.2282399261793</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>88.12723419594904</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067453</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.9709121168621</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187114</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462287</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>125.505489761041</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.24602870709352</v>
+        <v>45.44677382459155</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124943</v>
       </c>
       <c r="D31" t="n">
-        <v>98.08864825591539</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459143</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>184.0188038644573</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822929</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>250.2980548978889</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.48882721876625</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228727</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>226.0671788815074</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912652.7920400033</v>
+        <v>912652.7920400023</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>998513.6880604548</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998513.6880604547</v>
+        <v>998513.6880604549</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>998513.688060455</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713453</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="I2" t="n">
-        <v>423751.9648372533</v>
-      </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
@@ -26344,10 +26344,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372531</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185183</v>
+        <v>143114.1392185158</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051354</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>1.741016149026109e-10</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115392</v>
+        <v>37377.32855115332</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848853</v>
+        <v>43782.4065584892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813249</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214729</v>
+        <v>86093.72216214711</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>233368.8655592229</v>
       </c>
       <c r="D6" t="n">
-        <v>233368.8655592232</v>
+        <v>233368.865559223</v>
       </c>
       <c r="E6" t="n">
-        <v>147288.6092612046</v>
+        <v>147078.6450173622</v>
       </c>
       <c r="F6" t="n">
-        <v>144192.8488254364</v>
+        <v>144146.943829868</v>
       </c>
       <c r="G6" t="n">
-        <v>300905.1104909861</v>
+        <v>300870.3725655504</v>
       </c>
       <c r="H6" t="n">
-        <v>312072.3467265647</v>
+        <v>312037.608801129</v>
       </c>
       <c r="I6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011293</v>
       </c>
       <c r="J6" t="n">
-        <v>94541.14432928745</v>
+        <v>94506.4064038518</v>
       </c>
       <c r="K6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011292</v>
       </c>
       <c r="L6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011291</v>
       </c>
       <c r="M6" t="n">
-        <v>274695.018175411</v>
+        <v>274660.2802499759</v>
       </c>
       <c r="N6" t="n">
-        <v>268289.9401680763</v>
+        <v>268255.2022426398</v>
       </c>
       <c r="O6" t="n">
-        <v>309049.0487493401</v>
+        <v>309014.3108239045</v>
       </c>
       <c r="P6" t="n">
-        <v>312072.3467265647</v>
+        <v>312037.6088011292</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086502</v>
+        <v>981.3883278086479</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012599</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218274</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>389.999532279178</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6284962353373</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797457683</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>36.17662488027034</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.367509659041417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.63161816094015</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228725</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>120.3192393023353</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.527059885577285e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-5.064748620497994e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.452506456820145e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.817479748453479e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-5.184462574490781e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.719513420539442e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-4.113292621083595e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.339550858072471e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.107617701260703e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485657</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543509</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.868117538026</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307187</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726067</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216985</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385744</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898403</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294422</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615149</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895597</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356987</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475348</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188525</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969427</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191526</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596493</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256426</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845341</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147152</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431821</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205479</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126212</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697595</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737178</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691802</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619746</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509181</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263715</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.49937889731</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050065</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761901</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916783</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570628</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929618</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282692</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059974</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34214,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040324</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276261</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517112</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584713</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932494</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077554</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062453</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151102</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156655</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457684</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625157</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313819</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987377</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062177</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406265997</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701867</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360917</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112342</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882121</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765386</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190461</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410836</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998389</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916671</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394704</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
